--- a/Result/spheres/Sum_r.xlsx
+++ b/Result/spheres/Sum_r.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t xml:space="preserve">SBB</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">MR200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
   </si>
 </sst>
 </file>
@@ -154,15 +157,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H4 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M42" activeCellId="0" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -199,32 +202,40 @@
       <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>30</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.00130658431</v>
+        <v>0.000336649229</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.00156440813</v>
+        <v>0.000491925075</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.00162930623</v>
+        <v>0.000526217006</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.00136493541</v>
+        <v>0.000375348026</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.00130523946</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>0.000328877194</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.000142531173</v>
+      </c>
       <c r="H2" s="1" t="n">
-        <v>0.000637826219</v>
+        <v>0.000141048571</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.000962347298</v>
+        <v>0.00025898874</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>4.373911</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -232,148 +243,191 @@
         <v>50</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.00115020838</v>
+        <v>0.000316283073</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.00127639978</v>
+        <v>0.000394631607</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.00130502557</v>
+        <v>0.000410167856</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.00116911585</v>
+        <v>0.000338509508</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.00116090081</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>0.000317835523</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.000118733939</v>
+      </c>
       <c r="H3" s="1" t="n">
-        <v>0.000697024398</v>
+        <v>0.000117411438</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.000965423079</v>
+        <v>0.000260804302</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>7.289852</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.00103423229</v>
+        <v>0.000299318095</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.00109069203</v>
+        <v>0.000346664523</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.00110203904</v>
+        <v>0.000355857252</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.00105847024</v>
+        <v>0.000314143403</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.00104630652</v>
+        <v>0.000302316151</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.000799324551</v>
+        <v>0.00012006488</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.000793607717</v>
+        <v>0.000118982921</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.000966233871</v>
+        <v>0.000261224087</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>10.205792</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.00100889356</v>
+        <v>0.000287114996</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.00105170917</v>
+        <v>0.000319419838</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.00105947038</v>
+        <v>0.000325458071</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.00102843481</v>
+        <v>0.00029791828</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.00101979339</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>0.00029008528</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.000125625917</v>
+      </c>
       <c r="H5" s="1" t="n">
-        <v>0.000821880545</v>
+        <v>0.000124614382</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.000966342832</v>
+        <v>0.000261176345</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>13.121733</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0.000989808216</v>
+        <v>0.000279254085</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.00102372308</v>
+        <v>0.000302406626</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.0010295369</v>
+        <v>0.00030660622</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.00100647504</v>
+        <v>0.000286832872</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.000999849421</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>0.000281271375</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.000130624366</v>
+      </c>
       <c r="H6" s="1" t="n">
-        <v>0.000843461341</v>
+        <v>0.000129736599</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>0.000966138959</v>
+        <v>0.000260916579</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>16.037674</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.000268407407</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.000288369115</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.000291756874</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.000277326382</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.000272924035</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.000135608623</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0.000134873261</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0.000260547105</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>18.953614</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>0.000954031272</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0.000974130837</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>0.000976919415</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0.000965768272</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0.000962409</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="n">
-        <v>0.000889859146</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>0.000965768272</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="B8" s="1" t="n">
+        <v>0.000255278503</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.00026602835</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.000267610318</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.000260547105</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.000258528603</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.000146440665</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.000145921419</v>
+      </c>
       <c r="K8" s="1" t="n">
-        <v>0.000965298462</v>
+        <v>0.000260109539</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>29.159407</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,7 +439,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="K9" s="1" t="n">
-        <v>0.000964772469</v>
+        <v>0.000259638928</v>
       </c>
     </row>
   </sheetData>
@@ -404,15 +458,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,54 +490,77 @@
       <c r="A2" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="n">
+        <v>0.000187372461</v>
+      </c>
       <c r="H2" s="1" t="n">
-        <v>0.000828720807</v>
+        <v>0.00018494955</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="n">
+        <v>0.000158825818</v>
+      </c>
       <c r="H3" s="1" t="n">
-        <v>0.000829115991</v>
+        <v>0.000156981994</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.000152545569</v>
+      </c>
       <c r="H4" s="1" t="n">
-        <v>0.000864443711</v>
+        <v>0.000151177519</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.000151628147</v>
+      </c>
       <c r="H5" s="1" t="n">
-        <v>0.000877149629</v>
+        <v>0.000150441306</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.000151994434</v>
+      </c>
       <c r="H6" s="1" t="n">
-        <v>0.000887831837</v>
+        <v>0.00015099357</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.000153410397</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0.000152599648</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="n">
-        <v>0.000914542813</v>
+      <c r="G8" s="1" t="n">
+        <v>0.000156939722</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.000156394078</v>
       </c>
     </row>
   </sheetData>
@@ -505,12 +582,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -531,12 +608,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
